--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -65,10 +65,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -76,6 +76,232 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>  wartości funkcji celu </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>od ilości mutacji</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ghjhj</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$3,Arkusz1!$F$3,Arkusz1!$I$3,Arkusz1!$L$3,Arkusz1!$O$3,Arkusz1!$R$3,Arkusz1!$U$3,Arkusz1!$X$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$8,Arkusz1!$E$8,Arkusz1!$H$9,Arkusz1!$K$8,Arkusz1!$N$12,Arkusz1!$Q$8,Arkusz1!$T$8,Arkusz1!$W$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27244.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27313.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>27146.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26973.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26830.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26980.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26857.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26833.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="108001920"/>
+        <c:axId val="99615104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108001920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ilość mutacji</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99615104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99615104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>wartość funkcji celu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108001920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,22 +592,22 @@
   <dimension ref="B1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="2:24">
       <c r="H2" s="1"/>
@@ -577,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27057</v>
+        <v>26870</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -681,7 +907,7 @@
       </c>
       <c r="Q8">
         <f>AVERAGE(Q3:Q7)</f>
-        <v>27017.8</v>
+        <v>26980.400000000001</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -702,7 +928,7 @@
       </c>
     </row>
     <row r="9" spans="2:24">
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f>AVERAGE(H3:H7)</f>
         <v>27146.6</v>
       </c>
@@ -732,6 +958,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ilość mutacji</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>srednia</t>
+  </si>
+  <si>
+    <t>czas trwania programu</t>
   </si>
 </sst>
 </file>
@@ -40,12 +43,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -69,6 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -269,6 +279,168 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wartości funkcji celu od czasu trwania programu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ffg</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$44:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26976.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26996.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26973.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26933.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26862.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26863.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26943.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26891.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27121.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="47786240"/>
+        <c:axId val="47791488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47786240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47791488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47791488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47786240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -296,6 +468,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -589,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X12"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -952,9 +1154,422 @@
         <v>26830.444444444445</v>
       </c>
     </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34">
+        <v>27165</v>
+      </c>
+      <c r="D34">
+        <v>27142</v>
+      </c>
+      <c r="E34">
+        <v>27350</v>
+      </c>
+      <c r="F34">
+        <v>27318</v>
+      </c>
+      <c r="G34">
+        <v>27365</v>
+      </c>
+      <c r="H34">
+        <v>26419</v>
+      </c>
+      <c r="I34">
+        <v>27066</v>
+      </c>
+      <c r="J34">
+        <v>26576</v>
+      </c>
+      <c r="K34">
+        <v>26615</v>
+      </c>
+      <c r="L34">
+        <v>27150</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35">
+        <v>26892</v>
+      </c>
+      <c r="D35">
+        <v>26897</v>
+      </c>
+      <c r="E35">
+        <v>27179</v>
+      </c>
+      <c r="F35">
+        <v>26885</v>
+      </c>
+      <c r="G35">
+        <v>26871</v>
+      </c>
+      <c r="H35">
+        <v>26499</v>
+      </c>
+      <c r="I35">
+        <v>27063</v>
+      </c>
+      <c r="J35">
+        <v>27129</v>
+      </c>
+      <c r="K35">
+        <v>26807</v>
+      </c>
+      <c r="L35">
+        <v>26914</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36">
+        <v>27210</v>
+      </c>
+      <c r="D36">
+        <v>26816</v>
+      </c>
+      <c r="E36">
+        <v>26923</v>
+      </c>
+      <c r="F36">
+        <v>26864</v>
+      </c>
+      <c r="G36">
+        <v>27427</v>
+      </c>
+      <c r="H36">
+        <v>27243</v>
+      </c>
+      <c r="I36">
+        <v>26698</v>
+      </c>
+      <c r="J36">
+        <v>26983</v>
+      </c>
+      <c r="K36">
+        <v>27039</v>
+      </c>
+      <c r="L36">
+        <v>27338</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37">
+        <v>27094</v>
+      </c>
+      <c r="D37">
+        <v>27040</v>
+      </c>
+      <c r="E37">
+        <v>26773</v>
+      </c>
+      <c r="F37">
+        <v>26905</v>
+      </c>
+      <c r="G37">
+        <v>26737</v>
+      </c>
+      <c r="H37">
+        <v>26915</v>
+      </c>
+      <c r="I37">
+        <v>26942</v>
+      </c>
+      <c r="J37">
+        <v>26882</v>
+      </c>
+      <c r="K37">
+        <v>26621</v>
+      </c>
+      <c r="L37">
+        <v>27202</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38">
+        <v>27216</v>
+      </c>
+      <c r="D38">
+        <v>27054</v>
+      </c>
+      <c r="E38">
+        <v>27065</v>
+      </c>
+      <c r="F38">
+        <v>27527</v>
+      </c>
+      <c r="G38">
+        <v>27072</v>
+      </c>
+      <c r="H38">
+        <v>26614</v>
+      </c>
+      <c r="I38">
+        <v>26747</v>
+      </c>
+      <c r="J38">
+        <v>26984</v>
+      </c>
+      <c r="K38">
+        <v>26985</v>
+      </c>
+      <c r="L38">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39">
+        <v>26774</v>
+      </c>
+      <c r="D39">
+        <v>26454</v>
+      </c>
+      <c r="E39">
+        <v>27067</v>
+      </c>
+      <c r="F39">
+        <v>27273</v>
+      </c>
+      <c r="G39">
+        <v>26620</v>
+      </c>
+      <c r="H39">
+        <v>26245</v>
+      </c>
+      <c r="I39">
+        <v>27074</v>
+      </c>
+      <c r="J39">
+        <v>27236</v>
+      </c>
+      <c r="K39">
+        <v>27331</v>
+      </c>
+      <c r="L39">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40">
+        <v>27128</v>
+      </c>
+      <c r="D40">
+        <v>26807</v>
+      </c>
+      <c r="E40">
+        <v>26878</v>
+      </c>
+      <c r="F40">
+        <v>26210</v>
+      </c>
+      <c r="G40">
+        <v>26364</v>
+      </c>
+      <c r="H40">
+        <v>27087</v>
+      </c>
+      <c r="I40">
+        <v>26881</v>
+      </c>
+      <c r="J40">
+        <v>27279</v>
+      </c>
+      <c r="K40">
+        <v>26345</v>
+      </c>
+      <c r="L40">
+        <v>27163</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41">
+        <v>26475</v>
+      </c>
+      <c r="D41">
+        <v>26958</v>
+      </c>
+      <c r="E41">
+        <v>26827</v>
+      </c>
+      <c r="F41">
+        <v>26364</v>
+      </c>
+      <c r="G41">
+        <v>26908</v>
+      </c>
+      <c r="H41">
+        <v>27277</v>
+      </c>
+      <c r="I41">
+        <v>26435</v>
+      </c>
+      <c r="J41">
+        <v>27010</v>
+      </c>
+      <c r="K41">
+        <v>27318</v>
+      </c>
+      <c r="L41">
+        <v>27327</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42">
+        <v>26677</v>
+      </c>
+      <c r="D42">
+        <v>27185</v>
+      </c>
+      <c r="E42">
+        <v>26413</v>
+      </c>
+      <c r="F42">
+        <v>27006</v>
+      </c>
+      <c r="G42">
+        <v>26347</v>
+      </c>
+      <c r="H42">
+        <v>26687</v>
+      </c>
+      <c r="I42">
+        <v>27262</v>
+      </c>
+      <c r="J42">
+        <v>26426</v>
+      </c>
+      <c r="K42">
+        <v>27139</v>
+      </c>
+      <c r="L42">
+        <v>26936</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43">
+        <v>27133</v>
+      </c>
+      <c r="D43">
+        <v>27613</v>
+      </c>
+      <c r="E43">
+        <v>27261</v>
+      </c>
+      <c r="F43">
+        <v>26984</v>
+      </c>
+      <c r="G43">
+        <v>26918</v>
+      </c>
+      <c r="H43">
+        <v>27084</v>
+      </c>
+      <c r="I43">
+        <v>26468</v>
+      </c>
+      <c r="J43">
+        <v>26930</v>
+      </c>
+      <c r="K43">
+        <v>26713</v>
+      </c>
+      <c r="L43">
+        <v>27228</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="4">
+        <f>AVERAGE(C34:C43)</f>
+        <v>26976.400000000001</v>
+      </c>
+      <c r="D44" s="4">
+        <f>AVERAGE(D34:D43)</f>
+        <v>26996.6</v>
+      </c>
+      <c r="E44" s="4">
+        <f>AVERAGE(E34:E43)</f>
+        <v>26973.599999999999</v>
+      </c>
+      <c r="F44" s="4">
+        <f>AVERAGE(F34:F43)</f>
+        <v>26933.599999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <f>AVERAGE(G34:G43)</f>
+        <v>26862.9</v>
+      </c>
+      <c r="H44" s="4">
+        <f>AVERAGE(H34:H43)</f>
+        <v>26807</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" ref="I44:L44" si="0">AVERAGE(I34:I43)</f>
+        <v>26863.599999999999</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>26943.5</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="0"/>
+        <v>26891.3</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="0"/>
+        <v>27121.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ilość mutacji</t>
   </si>
@@ -29,15 +29,24 @@
   <si>
     <t>czas trwania programu</t>
   </si>
+  <si>
+    <t>proporcje przy selekcji (ile turniejem)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
       <charset val="238"/>
@@ -69,16 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -202,11 +212,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108001920"/>
-        <c:axId val="99615104"/>
+        <c:axId val="73074560"/>
+        <c:axId val="83222528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108001920"/>
+        <c:axId val="73074560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -231,14 +241,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99615104"/>
+        <c:crossAx val="83222528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99615104"/>
+        <c:axId val="83222528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,7 +274,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108001920"/>
+        <c:crossAx val="73074560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -273,7 +283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -396,25 +406,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47786240"/>
-        <c:axId val="47791488"/>
+        <c:axId val="83504512"/>
+        <c:axId val="83534976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47786240"/>
+        <c:axId val="83504512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47791488"/>
+        <c:crossAx val="83534976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47791488"/>
+        <c:axId val="83534976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +432,155 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47786240"/>
+        <c:crossAx val="83504512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>selekcja</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Arkusz1!$B$68,Arkusz1!$E$68,Arkusz1!$H$68,Arkusz1!$K$68,Arkusz1!$N$68,Arkusz1!$Q$68,Arkusz1!$T$68,Arkusz1!$W$68,Arkusz1!$Z$68,Arkusz1!$AC$68,Arkusz1!$AF$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$A$78,Arkusz1!$D$78,Arkusz1!$G$78,Arkusz1!$J$78,Arkusz1!$M$78,Arkusz1!$P$78,Arkusz1!$S$78,Arkusz1!$V$78,Arkusz1!$Y$78,Arkusz1!$AB$78,Arkusz1!$AE$78)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>40219.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39626.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40420.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29242.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29388.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29262.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30692.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31258.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31418.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31443.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31455.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="69467520"/>
+        <c:axId val="86590976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69467520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69467520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -498,6 +656,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -791,25 +979,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="2:24">
       <c r="H2" s="1"/>
@@ -1155,22 +1343,22 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33">
@@ -1525,51 +1713,673 @@
       </c>
     </row>
     <row r="44" spans="3:12">
-      <c r="C44" s="4">
-        <f>AVERAGE(C34:C43)</f>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:H44" si="0">AVERAGE(C34:C43)</f>
         <v>26976.400000000001</v>
       </c>
-      <c r="D44" s="4">
-        <f>AVERAGE(D34:D43)</f>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
         <v>26996.6</v>
       </c>
-      <c r="E44" s="4">
-        <f>AVERAGE(E34:E43)</f>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
         <v>26973.599999999999</v>
       </c>
-      <c r="F44" s="4">
-        <f>AVERAGE(F34:F43)</f>
+      <c r="F44" s="3">
+        <f t="shared" si="0"/>
         <v>26933.599999999999</v>
       </c>
-      <c r="G44" s="4">
-        <f>AVERAGE(G34:G43)</f>
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
         <v>26862.9</v>
       </c>
-      <c r="H44" s="4">
-        <f>AVERAGE(H34:H43)</f>
+      <c r="H44" s="3">
+        <f t="shared" si="0"/>
         <v>26807</v>
       </c>
-      <c r="I44" s="4">
-        <f t="shared" ref="I44:L44" si="0">AVERAGE(I34:I43)</f>
+      <c r="I44" s="3">
+        <f t="shared" ref="I44:L44" si="1">AVERAGE(I34:I43)</f>
         <v>26863.599999999999</v>
       </c>
-      <c r="J44" s="4">
-        <f t="shared" si="0"/>
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
         <v>26943.5</v>
       </c>
-      <c r="K44" s="4">
-        <f t="shared" si="0"/>
+      <c r="K44" s="3">
+        <f t="shared" si="1"/>
         <v>26891.3</v>
       </c>
-      <c r="L44" s="4">
-        <f t="shared" si="0"/>
+      <c r="L44" s="3">
+        <f t="shared" si="1"/>
         <v>27121.9</v>
       </c>
     </row>
+    <row r="67" spans="1:32">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:32">
+      <c r="A68">
+        <v>40781</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>38982</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>41745</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>29278</v>
+      </c>
+      <c r="K68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>29937</v>
+      </c>
+      <c r="N68">
+        <v>40</v>
+      </c>
+      <c r="P68">
+        <v>28402</v>
+      </c>
+      <c r="Q68">
+        <v>50</v>
+      </c>
+      <c r="S68">
+        <v>30701</v>
+      </c>
+      <c r="T68">
+        <v>60</v>
+      </c>
+      <c r="V68">
+        <v>30943</v>
+      </c>
+      <c r="W68">
+        <v>70</v>
+      </c>
+      <c r="Y68">
+        <v>31874</v>
+      </c>
+      <c r="Z68">
+        <v>80</v>
+      </c>
+      <c r="AB68">
+        <v>32104</v>
+      </c>
+      <c r="AC68">
+        <v>90</v>
+      </c>
+      <c r="AE68">
+        <v>31452</v>
+      </c>
+      <c r="AF68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32">
+      <c r="A69">
+        <v>41530</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>38855</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>41579</v>
+      </c>
+      <c r="H69">
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <v>29410</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+      <c r="M69">
+        <v>29400</v>
+      </c>
+      <c r="N69">
+        <v>50</v>
+      </c>
+      <c r="P69">
+        <v>29296</v>
+      </c>
+      <c r="Q69">
+        <v>60</v>
+      </c>
+      <c r="S69">
+        <v>30080</v>
+      </c>
+      <c r="T69">
+        <v>70</v>
+      </c>
+      <c r="V69">
+        <v>31376</v>
+      </c>
+      <c r="W69">
+        <v>80</v>
+      </c>
+      <c r="Y69">
+        <v>31548</v>
+      </c>
+      <c r="Z69">
+        <v>90</v>
+      </c>
+      <c r="AB69">
+        <v>30754</v>
+      </c>
+      <c r="AC69">
+        <v>100</v>
+      </c>
+      <c r="AE69">
+        <v>31506</v>
+      </c>
+      <c r="AF69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32">
+      <c r="A70">
+        <v>41191</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>39217</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>37445</v>
+      </c>
+      <c r="H70">
+        <v>40</v>
+      </c>
+      <c r="J70">
+        <v>29582</v>
+      </c>
+      <c r="K70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>29212</v>
+      </c>
+      <c r="N70">
+        <v>60</v>
+      </c>
+      <c r="P70">
+        <v>29448</v>
+      </c>
+      <c r="Q70">
+        <v>70</v>
+      </c>
+      <c r="S70">
+        <v>31384</v>
+      </c>
+      <c r="T70">
+        <v>80</v>
+      </c>
+      <c r="V70">
+        <v>31228</v>
+      </c>
+      <c r="W70">
+        <v>90</v>
+      </c>
+      <c r="Y70">
+        <v>31673</v>
+      </c>
+      <c r="Z70">
+        <v>100</v>
+      </c>
+      <c r="AB70">
+        <v>31416</v>
+      </c>
+      <c r="AC70">
+        <v>100</v>
+      </c>
+      <c r="AE70">
+        <v>31411</v>
+      </c>
+      <c r="AF70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32">
+      <c r="A71">
+        <v>38550</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>39270</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="G71">
+        <v>41664</v>
+      </c>
+      <c r="H71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>28828</v>
+      </c>
+      <c r="K71">
+        <v>60</v>
+      </c>
+      <c r="M71">
+        <v>29402</v>
+      </c>
+      <c r="N71">
+        <v>70</v>
+      </c>
+      <c r="P71">
+        <v>29014</v>
+      </c>
+      <c r="Q71">
+        <v>80</v>
+      </c>
+      <c r="S71">
+        <v>30773</v>
+      </c>
+      <c r="T71">
+        <v>90</v>
+      </c>
+      <c r="V71">
+        <v>31489</v>
+      </c>
+      <c r="W71">
+        <v>100</v>
+      </c>
+      <c r="Y71">
+        <v>31571</v>
+      </c>
+      <c r="Z71">
+        <v>100</v>
+      </c>
+      <c r="AB71">
+        <v>30525</v>
+      </c>
+      <c r="AC71">
+        <v>100</v>
+      </c>
+      <c r="AE71">
+        <v>32016</v>
+      </c>
+      <c r="AF71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32">
+      <c r="A72">
+        <v>39516</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>40619</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>41337</v>
+      </c>
+      <c r="H72">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <v>29675</v>
+      </c>
+      <c r="K72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>30080</v>
+      </c>
+      <c r="N72">
+        <v>80</v>
+      </c>
+      <c r="P72">
+        <v>29423</v>
+      </c>
+      <c r="Q72">
+        <v>90</v>
+      </c>
+      <c r="S72">
+        <v>30535</v>
+      </c>
+      <c r="T72">
+        <v>100</v>
+      </c>
+      <c r="V72">
+        <v>31541</v>
+      </c>
+      <c r="W72">
+        <v>100</v>
+      </c>
+      <c r="Y72">
+        <v>31306</v>
+      </c>
+      <c r="Z72">
+        <v>100</v>
+      </c>
+      <c r="AB72">
+        <v>31889</v>
+      </c>
+      <c r="AC72">
+        <v>100</v>
+      </c>
+      <c r="AE72">
+        <v>31908</v>
+      </c>
+      <c r="AF72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32">
+      <c r="A73">
+        <v>41072</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>40284</v>
+      </c>
+      <c r="E73">
+        <v>60</v>
+      </c>
+      <c r="G73">
+        <v>40137</v>
+      </c>
+      <c r="H73">
+        <v>70</v>
+      </c>
+      <c r="J73">
+        <v>29500</v>
+      </c>
+      <c r="K73">
+        <v>80</v>
+      </c>
+      <c r="M73">
+        <v>29308</v>
+      </c>
+      <c r="N73">
+        <v>90</v>
+      </c>
+      <c r="P73">
+        <v>29417</v>
+      </c>
+      <c r="Q73">
+        <v>100</v>
+      </c>
+      <c r="S73">
+        <v>30839</v>
+      </c>
+      <c r="T73">
+        <v>100</v>
+      </c>
+      <c r="V73">
+        <v>30749</v>
+      </c>
+      <c r="W73">
+        <v>100</v>
+      </c>
+      <c r="Y73">
+        <v>31766</v>
+      </c>
+      <c r="Z73">
+        <v>100</v>
+      </c>
+      <c r="AB73">
+        <v>30792</v>
+      </c>
+      <c r="AC73">
+        <v>100</v>
+      </c>
+      <c r="AE73">
+        <v>31399</v>
+      </c>
+      <c r="AF73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32">
+      <c r="A74">
+        <v>39110</v>
+      </c>
+      <c r="D74">
+        <v>40478</v>
+      </c>
+      <c r="G74">
+        <v>41881</v>
+      </c>
+      <c r="J74">
+        <v>28305</v>
+      </c>
+      <c r="M74">
+        <v>29027</v>
+      </c>
+      <c r="P74">
+        <v>29239</v>
+      </c>
+      <c r="S74">
+        <v>31020</v>
+      </c>
+      <c r="V74">
+        <v>31485</v>
+      </c>
+      <c r="Y74">
+        <v>30957</v>
+      </c>
+      <c r="AB74">
+        <v>31801</v>
+      </c>
+      <c r="AE74">
+        <v>32058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32">
+      <c r="A75">
+        <v>40909</v>
+      </c>
+      <c r="D75">
+        <v>38356</v>
+      </c>
+      <c r="G75">
+        <v>39550</v>
+      </c>
+      <c r="J75">
+        <v>29337</v>
+      </c>
+      <c r="M75">
+        <v>29395</v>
+      </c>
+      <c r="P75">
+        <v>29222</v>
+      </c>
+      <c r="S75">
+        <v>30456</v>
+      </c>
+      <c r="V75">
+        <v>30984</v>
+      </c>
+      <c r="Y75">
+        <v>30532</v>
+      </c>
+      <c r="AB75">
+        <v>31435</v>
+      </c>
+      <c r="AE75">
+        <v>30379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32">
+      <c r="A76">
+        <v>39139</v>
+      </c>
+      <c r="D76">
+        <v>40764</v>
+      </c>
+      <c r="G76">
+        <v>38790</v>
+      </c>
+      <c r="J76">
+        <v>28720</v>
+      </c>
+      <c r="M76">
+        <v>29584</v>
+      </c>
+      <c r="P76">
+        <v>29520</v>
+      </c>
+      <c r="S76">
+        <v>31165</v>
+      </c>
+      <c r="V76">
+        <v>31377</v>
+      </c>
+      <c r="Y76">
+        <v>31693</v>
+      </c>
+      <c r="AB76">
+        <v>31825</v>
+      </c>
+      <c r="AE76">
+        <v>31430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32">
+      <c r="A77">
+        <v>40397</v>
+      </c>
+      <c r="D77">
+        <v>39443</v>
+      </c>
+      <c r="G77">
+        <v>40077</v>
+      </c>
+      <c r="J77">
+        <v>29789</v>
+      </c>
+      <c r="M77">
+        <v>28541</v>
+      </c>
+      <c r="P77">
+        <v>29646</v>
+      </c>
+      <c r="S77">
+        <v>29971</v>
+      </c>
+      <c r="V77">
+        <v>31409</v>
+      </c>
+      <c r="Y77">
+        <v>31268</v>
+      </c>
+      <c r="AB77">
+        <v>31891</v>
+      </c>
+      <c r="AE77">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32">
+      <c r="A78">
+        <f>AVERAGE(A68:A77)</f>
+        <v>40219.5</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(D68:D77)</f>
+        <v>39626.800000000003</v>
+      </c>
+      <c r="G78">
+        <f>AVERAGE(G68:G77)</f>
+        <v>40420.5</v>
+      </c>
+      <c r="J78" s="5">
+        <f>AVERAGE(J68:J77)</f>
+        <v>29242.400000000001</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5">
+        <f>AVERAGE(M68:M77)</f>
+        <v>29388.6</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5">
+        <f>AVERAGE(P68:P77)</f>
+        <v>29262.7</v>
+      </c>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5">
+        <f>AVERAGE(S68:S77)</f>
+        <v>30692.400000000001</v>
+      </c>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5">
+        <f>AVERAGE(V68:V77)</f>
+        <v>31258.1</v>
+      </c>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5">
+        <f t="shared" ref="W78:Y78" si="2">AVERAGE(Y68:Y77)</f>
+        <v>31418.799999999999</v>
+      </c>
+      <c r="AB78">
+        <f>AVERAGE(AB68:AB77)</f>
+        <v>31443.200000000001</v>
+      </c>
+      <c r="AE78">
+        <f>AVERAGE(AE68:AE77)</f>
+        <v>31455.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A67:M67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -85,10 +85,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -212,11 +212,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73074560"/>
-        <c:axId val="83222528"/>
+        <c:axId val="66193280"/>
+        <c:axId val="84140032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73074560"/>
+        <c:axId val="66193280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,14 +241,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83222528"/>
+        <c:crossAx val="84140032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83222528"/>
+        <c:axId val="84140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +274,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73074560"/>
+        <c:crossAx val="66193280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -283,7 +283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -406,25 +406,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83504512"/>
-        <c:axId val="83534976"/>
+        <c:axId val="86715776"/>
+        <c:axId val="86742144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83504512"/>
+        <c:axId val="86715776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83534976"/>
+        <c:crossAx val="86742144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83534976"/>
+        <c:axId val="86742144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +432,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83504512"/>
+        <c:crossAx val="86715776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +445,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -456,6 +456,21 @@
   <c:lang val="pl-PL"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność wartości funkcji celu od proporcji podczas selekcji </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -554,46 +569,78 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69467520"/>
-        <c:axId val="86590976"/>
+        <c:axId val="86758144"/>
+        <c:axId val="86759680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69467520"/>
+        <c:axId val="86758144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>proporcja [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86590976"/>
+        <c:crossAx val="86759680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86590976"/>
+        <c:axId val="86759680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>wartość funkcji celu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69467520"/>
+        <c:crossAx val="86758144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -664,15 +711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -981,23 +1028,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="2:24">
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:24">
       <c r="H2" s="1"/>
@@ -1343,22 +1390,22 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33">
@@ -1755,21 +1802,21 @@
       </c>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68">
@@ -2332,38 +2379,38 @@
         <f>AVERAGE(G68:G77)</f>
         <v>40420.5</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <f>AVERAGE(J68:J77)</f>
         <v>29242.400000000001</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4">
         <f>AVERAGE(M68:M77)</f>
         <v>29388.6</v>
       </c>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5">
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4">
         <f>AVERAGE(P68:P77)</f>
         <v>29262.7</v>
       </c>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5">
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4">
         <f>AVERAGE(S68:S77)</f>
         <v>30692.400000000001</v>
       </c>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4">
         <f>AVERAGE(V68:V77)</f>
         <v>31258.1</v>
       </c>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5">
-        <f t="shared" ref="W78:Y78" si="2">AVERAGE(Y68:Y77)</f>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4">
+        <f t="shared" ref="Y78" si="2">AVERAGE(Y68:Y77)</f>
         <v>31418.799999999999</v>
       </c>
       <c r="AB78">

--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -132,7 +132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -212,11 +211,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66193280"/>
-        <c:axId val="84140032"/>
+        <c:axId val="85067648"/>
+        <c:axId val="87355392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66193280"/>
+        <c:axId val="85067648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -237,18 +236,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84140032"/>
+        <c:crossAx val="87355392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84140032"/>
+        <c:axId val="87355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,11 +268,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66193280"/>
+        <c:crossAx val="85067648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -283,7 +280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -406,25 +403,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86715776"/>
-        <c:axId val="86742144"/>
+        <c:axId val="87371136"/>
+        <c:axId val="87397504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86715776"/>
+        <c:axId val="87371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86742144"/>
+        <c:crossAx val="87397504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86742144"/>
+        <c:axId val="87397504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +429,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86715776"/>
+        <c:crossAx val="87371136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -445,7 +442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -532,13 +529,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>40219.5</c:v>
+                  <c:v>30130.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39626.800000000003</c:v>
+                  <c:v>29626.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40420.5</c:v>
+                  <c:v>29288.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29242.400000000001</c:v>
@@ -569,11 +566,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86758144"/>
-        <c:axId val="86759680"/>
+        <c:axId val="87417600"/>
+        <c:axId val="87419520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86758144"/>
+        <c:axId val="87417600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,14 +595,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86759680"/>
+        <c:crossAx val="87419520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86759680"/>
+        <c:axId val="87419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +628,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86758144"/>
+        <c:crossAx val="87417600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -640,7 +637,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1028,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="Q87" sqref="Q87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1820,19 +1817,19 @@
     </row>
     <row r="68" spans="1:32">
       <c r="A68">
-        <v>40781</v>
+        <v>30847</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>38982</v>
+        <v>29881</v>
       </c>
       <c r="E68">
         <v>10</v>
       </c>
       <c r="G68">
-        <v>41745</v>
+        <v>29439</v>
       </c>
       <c r="H68">
         <v>20</v>
@@ -1888,19 +1885,19 @@
     </row>
     <row r="69" spans="1:32">
       <c r="A69">
-        <v>41530</v>
+        <v>30120</v>
       </c>
       <c r="B69">
         <v>10</v>
       </c>
       <c r="D69">
-        <v>38855</v>
+        <v>29900</v>
       </c>
       <c r="E69">
         <v>20</v>
       </c>
       <c r="G69">
-        <v>41579</v>
+        <v>29417</v>
       </c>
       <c r="H69">
         <v>30</v>
@@ -1956,19 +1953,19 @@
     </row>
     <row r="70" spans="1:32">
       <c r="A70">
-        <v>41191</v>
+        <v>29254</v>
       </c>
       <c r="B70">
         <v>20</v>
       </c>
       <c r="D70">
-        <v>39217</v>
+        <v>29467</v>
       </c>
       <c r="E70">
         <v>30</v>
       </c>
       <c r="G70">
-        <v>37445</v>
+        <v>29150</v>
       </c>
       <c r="H70">
         <v>40</v>
@@ -2024,19 +2021,19 @@
     </row>
     <row r="71" spans="1:32">
       <c r="A71">
-        <v>38550</v>
+        <v>31421</v>
       </c>
       <c r="B71">
         <v>30</v>
       </c>
       <c r="D71">
-        <v>39270</v>
+        <v>29921</v>
       </c>
       <c r="E71">
         <v>40</v>
       </c>
       <c r="G71">
-        <v>41664</v>
+        <v>28964</v>
       </c>
       <c r="H71">
         <v>50</v>
@@ -2092,19 +2089,19 @@
     </row>
     <row r="72" spans="1:32">
       <c r="A72">
-        <v>39516</v>
+        <v>30650</v>
       </c>
       <c r="B72">
         <v>40</v>
       </c>
       <c r="D72">
-        <v>40619</v>
+        <v>29617</v>
       </c>
       <c r="E72">
         <v>50</v>
       </c>
       <c r="G72">
-        <v>41337</v>
+        <v>29581</v>
       </c>
       <c r="H72">
         <v>60</v>
@@ -2160,19 +2157,19 @@
     </row>
     <row r="73" spans="1:32">
       <c r="A73">
-        <v>41072</v>
+        <v>29630</v>
       </c>
       <c r="B73">
         <v>50</v>
       </c>
       <c r="D73">
-        <v>40284</v>
+        <v>29775</v>
       </c>
       <c r="E73">
         <v>60</v>
       </c>
       <c r="G73">
-        <v>40137</v>
+        <v>29210</v>
       </c>
       <c r="H73">
         <v>70</v>
@@ -2228,13 +2225,13 @@
     </row>
     <row r="74" spans="1:32">
       <c r="A74">
-        <v>39110</v>
+        <v>30358</v>
       </c>
       <c r="D74">
-        <v>40478</v>
+        <v>29302</v>
       </c>
       <c r="G74">
-        <v>41881</v>
+        <v>29115</v>
       </c>
       <c r="J74">
         <v>28305</v>
@@ -2263,13 +2260,13 @@
     </row>
     <row r="75" spans="1:32">
       <c r="A75">
-        <v>40909</v>
+        <v>29239</v>
       </c>
       <c r="D75">
-        <v>38356</v>
+        <v>29552</v>
       </c>
       <c r="G75">
-        <v>39550</v>
+        <v>29328</v>
       </c>
       <c r="J75">
         <v>29337</v>
@@ -2298,13 +2295,13 @@
     </row>
     <row r="76" spans="1:32">
       <c r="A76">
-        <v>39139</v>
+        <v>29398</v>
       </c>
       <c r="D76">
-        <v>40764</v>
+        <v>29753</v>
       </c>
       <c r="G76">
-        <v>38790</v>
+        <v>29671</v>
       </c>
       <c r="J76">
         <v>28720</v>
@@ -2333,13 +2330,13 @@
     </row>
     <row r="77" spans="1:32">
       <c r="A77">
-        <v>40397</v>
+        <v>30385</v>
       </c>
       <c r="D77">
-        <v>39443</v>
+        <v>29099</v>
       </c>
       <c r="G77">
-        <v>40077</v>
+        <v>29012</v>
       </c>
       <c r="J77">
         <v>29789</v>
@@ -2369,15 +2366,15 @@
     <row r="78" spans="1:32">
       <c r="A78">
         <f>AVERAGE(A68:A77)</f>
-        <v>40219.5</v>
+        <v>30130.2</v>
       </c>
       <c r="D78">
         <f>AVERAGE(D68:D77)</f>
-        <v>39626.800000000003</v>
+        <v>29626.7</v>
       </c>
       <c r="G78">
         <f>AVERAGE(G68:G77)</f>
-        <v>40420.5</v>
+        <v>29288.7</v>
       </c>
       <c r="J78" s="4">
         <f>AVERAGE(J68:J77)</f>

--- a/sprawozdanie_p.xlsx
+++ b/sprawozdanie_p.xlsx
@@ -132,6 +132,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -198,7 +199,7 @@
                   <c:v>26830.444444444445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26980.400000000001</c:v>
+                  <c:v>26900.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26857.4</c:v>
@@ -211,11 +212,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85067648"/>
-        <c:axId val="87355392"/>
+        <c:axId val="69470080"/>
+        <c:axId val="86437888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85067648"/>
+        <c:axId val="69470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -236,17 +237,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87355392"/>
+        <c:crossAx val="86437888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87355392"/>
+        <c:axId val="86437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,10 +270,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85067648"/>
+        <c:crossAx val="69470080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -280,7 +283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -369,80 +372,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>26976.400000000001</c:v>
+                  <c:v>29392.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26996.6</c:v>
+                  <c:v>29309.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26973.599999999999</c:v>
+                  <c:v>29076.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26933.599999999999</c:v>
+                  <c:v>28994.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26862.9</c:v>
+                  <c:v>29018.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26807</c:v>
+                  <c:v>29047.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26863.599999999999</c:v>
+                  <c:v>28984.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26943.5</c:v>
+                  <c:v>29016.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26891.3</c:v>
+                  <c:v>29004.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27121.9</c:v>
+                  <c:v>28937.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87371136"/>
-        <c:axId val="87397504"/>
+        <c:axId val="86781312"/>
+        <c:axId val="86807680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87371136"/>
+        <c:axId val="86781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>czas trwania programu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87397504"/>
+        <c:crossAx val="86807680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87397504"/>
+        <c:axId val="86807680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>wartość funkcji celu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87371136"/>
+        <c:crossAx val="86781312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -566,11 +601,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87417600"/>
-        <c:axId val="87419520"/>
+        <c:axId val="86827776"/>
+        <c:axId val="86829696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87417600"/>
+        <c:axId val="86827776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,14 +630,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87419520"/>
+        <c:crossAx val="86829696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87419520"/>
+        <c:axId val="86829696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +663,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87417600"/>
+        <c:crossAx val="86827776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -637,7 +672,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -678,15 +713,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1025,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="S87" sqref="S87"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1087,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="Q3">
-        <v>27088</v>
+        <v>26888</v>
       </c>
       <c r="R3">
         <v>20</v>
@@ -1137,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="Q4">
-        <v>27183</v>
+        <v>27083</v>
       </c>
       <c r="R4">
         <v>10</v>
@@ -1187,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="Q5">
-        <v>26986</v>
+        <v>26886</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1341,7 +1376,7 @@
       </c>
       <c r="Q8">
         <f>AVERAGE(Q3:Q7)</f>
-        <v>26980.400000000001</v>
+        <v>26900.400000000001</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1438,364 +1473,364 @@
     </row>
     <row r="34" spans="3:12">
       <c r="C34">
-        <v>27165</v>
+        <v>29376</v>
       </c>
       <c r="D34">
-        <v>27142</v>
+        <v>29434</v>
       </c>
       <c r="E34">
-        <v>27350</v>
+        <v>29645</v>
       </c>
       <c r="F34">
-        <v>27318</v>
+        <v>28631</v>
       </c>
       <c r="G34">
-        <v>27365</v>
+        <v>29480</v>
       </c>
       <c r="H34">
-        <v>26419</v>
+        <v>29209</v>
       </c>
       <c r="I34">
-        <v>27066</v>
+        <v>29267</v>
       </c>
       <c r="J34">
-        <v>26576</v>
+        <v>28896</v>
       </c>
       <c r="K34">
-        <v>26615</v>
+        <v>29232</v>
       </c>
       <c r="L34">
-        <v>27150</v>
+        <v>28649</v>
       </c>
     </row>
     <row r="35" spans="3:12">
       <c r="C35">
-        <v>26892</v>
+        <v>29269</v>
       </c>
       <c r="D35">
-        <v>26897</v>
+        <v>29425</v>
       </c>
       <c r="E35">
-        <v>27179</v>
+        <v>29092</v>
       </c>
       <c r="F35">
-        <v>26885</v>
+        <v>29007</v>
       </c>
       <c r="G35">
-        <v>26871</v>
+        <v>29174</v>
       </c>
       <c r="H35">
-        <v>26499</v>
+        <v>28868</v>
       </c>
       <c r="I35">
-        <v>27063</v>
+        <v>28815</v>
       </c>
       <c r="J35">
-        <v>27129</v>
+        <v>29528</v>
       </c>
       <c r="K35">
-        <v>26807</v>
+        <v>29348</v>
       </c>
       <c r="L35">
-        <v>26914</v>
+        <v>28483</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36">
-        <v>27210</v>
+        <v>29527</v>
       </c>
       <c r="D36">
-        <v>26816</v>
+        <v>29476</v>
       </c>
       <c r="E36">
-        <v>26923</v>
+        <v>29124</v>
       </c>
       <c r="F36">
-        <v>26864</v>
+        <v>29255</v>
       </c>
       <c r="G36">
-        <v>27427</v>
+        <v>29426</v>
       </c>
       <c r="H36">
-        <v>27243</v>
+        <v>29029</v>
       </c>
       <c r="I36">
-        <v>26698</v>
+        <v>28966</v>
       </c>
       <c r="J36">
-        <v>26983</v>
+        <v>28999</v>
       </c>
       <c r="K36">
-        <v>27039</v>
+        <v>28553</v>
       </c>
       <c r="L36">
-        <v>27338</v>
+        <v>28662</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37">
-        <v>27094</v>
+        <v>28626</v>
       </c>
       <c r="D37">
-        <v>27040</v>
+        <v>29513</v>
       </c>
       <c r="E37">
-        <v>26773</v>
+        <v>28447</v>
       </c>
       <c r="F37">
-        <v>26905</v>
+        <v>29384</v>
       </c>
       <c r="G37">
-        <v>26737</v>
+        <v>28921</v>
       </c>
       <c r="H37">
-        <v>26915</v>
+        <v>29031</v>
       </c>
       <c r="I37">
-        <v>26942</v>
+        <v>28497</v>
       </c>
       <c r="J37">
-        <v>26882</v>
+        <v>29273</v>
       </c>
       <c r="K37">
-        <v>26621</v>
+        <v>28585</v>
       </c>
       <c r="L37">
-        <v>27202</v>
+        <v>29102</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38">
-        <v>27216</v>
+        <v>29377</v>
       </c>
       <c r="D38">
-        <v>27054</v>
+        <v>29242</v>
       </c>
       <c r="E38">
-        <v>27065</v>
+        <v>28899</v>
       </c>
       <c r="F38">
-        <v>27527</v>
+        <v>28324</v>
       </c>
       <c r="G38">
-        <v>27072</v>
+        <v>28766</v>
       </c>
       <c r="H38">
-        <v>26614</v>
+        <v>29150</v>
       </c>
       <c r="I38">
-        <v>26747</v>
+        <v>29169</v>
       </c>
       <c r="J38">
-        <v>26984</v>
+        <v>28822</v>
       </c>
       <c r="K38">
-        <v>26985</v>
+        <v>29258</v>
       </c>
       <c r="L38">
-        <v>26961</v>
+        <v>28467</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39">
-        <v>26774</v>
+        <v>29701</v>
       </c>
       <c r="D39">
-        <v>26454</v>
+        <v>29531</v>
       </c>
       <c r="E39">
-        <v>27067</v>
+        <v>29179</v>
       </c>
       <c r="F39">
-        <v>27273</v>
+        <v>28963</v>
       </c>
       <c r="G39">
-        <v>26620</v>
+        <v>29322</v>
       </c>
       <c r="H39">
-        <v>26245</v>
+        <v>28583</v>
       </c>
       <c r="I39">
-        <v>27074</v>
+        <v>29003</v>
       </c>
       <c r="J39">
-        <v>27236</v>
+        <v>28943</v>
       </c>
       <c r="K39">
-        <v>27331</v>
+        <v>29285</v>
       </c>
       <c r="L39">
-        <v>27000</v>
+        <v>29024</v>
       </c>
     </row>
     <row r="40" spans="3:12">
       <c r="C40">
-        <v>27128</v>
+        <v>29269</v>
       </c>
       <c r="D40">
-        <v>26807</v>
+        <v>28596</v>
       </c>
       <c r="E40">
-        <v>26878</v>
+        <v>28870</v>
       </c>
       <c r="F40">
-        <v>26210</v>
+        <v>29312</v>
       </c>
       <c r="G40">
-        <v>26364</v>
+        <v>29615</v>
       </c>
       <c r="H40">
-        <v>27087</v>
+        <v>29073</v>
       </c>
       <c r="I40">
-        <v>26881</v>
+        <v>29214</v>
       </c>
       <c r="J40">
-        <v>27279</v>
+        <v>29126</v>
       </c>
       <c r="K40">
-        <v>26345</v>
+        <v>28523</v>
       </c>
       <c r="L40">
-        <v>27163</v>
+        <v>29068</v>
       </c>
     </row>
     <row r="41" spans="3:12">
       <c r="C41">
-        <v>26475</v>
+        <v>29635</v>
       </c>
       <c r="D41">
-        <v>26958</v>
+        <v>29568</v>
       </c>
       <c r="E41">
-        <v>26827</v>
+        <v>28973</v>
       </c>
       <c r="F41">
-        <v>26364</v>
+        <v>29151</v>
       </c>
       <c r="G41">
-        <v>26908</v>
+        <v>28463</v>
       </c>
       <c r="H41">
-        <v>27277</v>
+        <v>29205</v>
       </c>
       <c r="I41">
-        <v>26435</v>
+        <v>28750</v>
       </c>
       <c r="J41">
-        <v>27010</v>
+        <v>28912</v>
       </c>
       <c r="K41">
-        <v>27318</v>
+        <v>28773</v>
       </c>
       <c r="L41">
-        <v>27327</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="C42">
-        <v>26677</v>
+        <v>29593</v>
       </c>
       <c r="D42">
-        <v>27185</v>
+        <v>28978</v>
       </c>
       <c r="E42">
-        <v>26413</v>
+        <v>29279</v>
       </c>
       <c r="F42">
-        <v>27006</v>
+        <v>28676</v>
       </c>
       <c r="G42">
-        <v>26347</v>
+        <v>28470</v>
       </c>
       <c r="H42">
-        <v>26687</v>
+        <v>28476</v>
       </c>
       <c r="I42">
-        <v>27262</v>
+        <v>28998</v>
       </c>
       <c r="J42">
-        <v>26426</v>
+        <v>28889</v>
       </c>
       <c r="K42">
-        <v>27139</v>
+        <v>29326</v>
       </c>
       <c r="L42">
-        <v>26936</v>
+        <v>29221</v>
       </c>
     </row>
     <row r="43" spans="3:12">
       <c r="C43">
-        <v>27133</v>
+        <v>29556</v>
       </c>
       <c r="D43">
-        <v>27613</v>
+        <v>29334</v>
       </c>
       <c r="E43">
-        <v>27261</v>
+        <v>29259</v>
       </c>
       <c r="F43">
-        <v>26984</v>
+        <v>29245</v>
       </c>
       <c r="G43">
-        <v>26918</v>
+        <v>28546</v>
       </c>
       <c r="H43">
-        <v>27084</v>
+        <v>29850</v>
       </c>
       <c r="I43">
-        <v>26468</v>
+        <v>29169</v>
       </c>
       <c r="J43">
-        <v>26930</v>
+        <v>28778</v>
       </c>
       <c r="K43">
-        <v>26713</v>
+        <v>29162</v>
       </c>
       <c r="L43">
-        <v>27228</v>
+        <v>29181</v>
       </c>
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="3">
         <f t="shared" ref="C44:H44" si="0">AVERAGE(C34:C43)</f>
-        <v>26976.400000000001</v>
+        <v>29392.9</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>26996.6</v>
+        <v>29309.7</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>26973.599999999999</v>
+        <v>29076.7</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="0"/>
-        <v>26933.599999999999</v>
+        <v>28994.799999999999</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>26862.9</v>
+        <v>29018.3</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>26807</v>
+        <v>29047.4</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" ref="I44:L44" si="1">AVERAGE(I34:I43)</f>
-        <v>26863.599999999999</v>
+        <v>28984.799999999999</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="1"/>
-        <v>26943.5</v>
+        <v>29016.6</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="1"/>
-        <v>26891.3</v>
+        <v>29004.5</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="1"/>
-        <v>27121.9</v>
+        <v>28937.7</v>
       </c>
     </row>
     <row r="67" spans="1:32">
